--- a/job-postings.xlsx
+++ b/job-postings.xlsx
@@ -449,131 +449,131 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Washington DC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>640</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3226</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>435</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Washington DC</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5316</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2966</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3375</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Baltimore</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3945</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>434</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>New Orleons</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3339</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>New Orleons</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>817</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Baltimore</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1263</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1208</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +603,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of Jobs</t>
+          <t>No. of Job</t>
         </is>
       </c>
     </row>
@@ -620,31 +620,31 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>333</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>C++</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2609</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6">
@@ -660,51 +660,51 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>C#</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1173</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Scala</t>
+          <t>C++</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>SQL Server</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>SQL Server</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MySQL Server</t>
+          <t>Scala</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -720,11 +720,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>MySQL Server</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
